--- a/results.xlsx
+++ b/results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Training</t>
   </si>
@@ -41,9 +41,6 @@
     <t>0,1,4,5,7,8</t>
   </si>
   <si>
-    <t>Baseline</t>
-  </si>
-  <si>
     <t>CNN</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
     <t># Cancer tumors in Test</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>1,4,5,7,8,9</t>
   </si>
   <si>
@@ -69,13 +63,70 @@
   </si>
   <si>
     <t>0,1,4,7,8,9</t>
+  </si>
+  <si>
+    <t>Total benign tumors:</t>
+  </si>
+  <si>
+    <t>total cancer tumors:</t>
+  </si>
+  <si>
+    <t>Total tumors</t>
+  </si>
+  <si>
+    <t>Baseline Accuracy</t>
+  </si>
+  <si>
+    <t>Baseline ACC</t>
+  </si>
+  <si>
+    <t>Baseline FPR</t>
+  </si>
+  <si>
+    <t>Baseline FNR</t>
+  </si>
+  <si>
+    <t>Baseline:</t>
+  </si>
+  <si>
+    <t>Rate everything as 0</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>#benign</t>
+  </si>
+  <si>
+    <t>#cancer</t>
+  </si>
+  <si>
+    <t>Baseline results:</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>Dataset:</t>
+  </si>
+  <si>
+    <t>MCC</t>
+  </si>
+  <si>
+    <t>CNN:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,16 +134,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -100,14 +175,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,246 +594,584 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J4:U25"/>
+  <dimension ref="A2:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="10" width="15.85546875" customWidth="1"/>
     <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" customWidth="1"/>
     <col min="16" max="16" width="25.28515625" customWidth="1"/>
     <col min="17" max="17" width="26.5703125" customWidth="1"/>
     <col min="19" max="19" width="16.140625" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="10:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="J5" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="N5" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="P5" t="s">
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="S5" t="s">
-        <v>5</v>
-      </c>
-      <c r="U5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="J7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7">
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="N7" t="s">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="P7">
+      <c r="G4">
         <v>56816</v>
       </c>
-      <c r="Q7">
+      <c r="H4">
         <v>122</v>
       </c>
-      <c r="S7">
-        <f t="shared" ref="S7:S15" si="0">P7/(P7+Q7)</f>
+      <c r="J4">
+        <f t="shared" ref="J4:J12" si="0">G4/(G4+H4)</f>
         <v>0.99785731848677506</v>
       </c>
-    </row>
-    <row r="8" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="J8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8">
+      <c r="L4">
+        <v>0.99790999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="N8" t="s">
+      <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="P8">
+      <c r="G5">
         <v>53050</v>
       </c>
-      <c r="Q8">
+      <c r="H5">
         <v>155</v>
       </c>
-      <c r="S8">
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>0.99708673996804809</v>
       </c>
-    </row>
-    <row r="9" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="P9">
+      <c r="L5">
+        <v>0.99770999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G6">
         <v>55702</v>
       </c>
-      <c r="Q9">
+      <c r="H6">
         <v>156</v>
       </c>
-      <c r="S9">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>0.99720720398152463</v>
       </c>
     </row>
-    <row r="10" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G7">
         <v>54707</v>
       </c>
-      <c r="Q10">
+      <c r="H7">
         <v>141</v>
       </c>
-      <c r="S10">
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>0.99742925904317381</v>
       </c>
     </row>
-    <row r="11" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
         <v>3</v>
       </c>
-      <c r="P11">
+      <c r="G8">
         <v>54362</v>
       </c>
-      <c r="Q11">
+      <c r="H8">
         <v>147</v>
       </c>
-      <c r="S11">
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>0.99730319763708741</v>
       </c>
-    </row>
-    <row r="12" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="P12">
+      <c r="L8">
+        <v>0.99833000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9">
         <v>56834</v>
       </c>
-      <c r="Q12">
+      <c r="H9">
         <v>113</v>
       </c>
-      <c r="S12">
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>0.99801569880766328</v>
       </c>
-    </row>
-    <row r="13" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="J13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13">
-        <v>7</v>
-      </c>
-      <c r="N13" t="s">
-        <v>3</v>
-      </c>
-      <c r="P13">
+      <c r="L9">
+        <v>0.99750000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G10">
         <v>52403</v>
       </c>
-      <c r="Q13">
+      <c r="H10">
         <v>136</v>
       </c>
-      <c r="S13">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>0.99741144673480653</v>
       </c>
     </row>
-    <row r="14" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="J14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14">
-        <v>8</v>
-      </c>
-      <c r="N14" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
         <v>3</v>
       </c>
-      <c r="P14">
+      <c r="G11">
         <v>55495</v>
       </c>
-      <c r="Q14">
+      <c r="H11">
         <v>110</v>
       </c>
-      <c r="S14">
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>0.9980217606330366</v>
       </c>
-    </row>
-    <row r="15" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="P15">
+      <c r="L11">
+        <v>0.99811000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12">
         <v>53374</v>
       </c>
-      <c r="Q15">
+      <c r="H12">
         <v>150</v>
       </c>
-      <c r="S15">
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>0.9971975188700396</v>
       </c>
-    </row>
-    <row r="16" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="J16" t="s">
+      <c r="L12">
+        <v>0.99729999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="L16">
+      <c r="C13">
         <v>9</v>
       </c>
-      <c r="N16" t="s">
+      <c r="E13" t="s">
         <v>3</v>
       </c>
-      <c r="P16">
+      <c r="G13">
         <v>56975</v>
       </c>
-      <c r="Q16">
+      <c r="H13">
         <v>125</v>
       </c>
-      <c r="S16">
-        <f>P16/(P16+Q16)</f>
+      <c r="J13">
+        <f>G13/(G13+H13)</f>
         <v>0.9978108581436077</v>
       </c>
-    </row>
-    <row r="19" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P19">
-        <f>SUM(P7:P18)</f>
+      <c r="L13">
+        <v>0.99831999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f>SUM(G4:G15)</f>
         <v>549718</v>
       </c>
-      <c r="Q19">
-        <f>SUM(Q7:Q18)</f>
+      <c r="H16">
+        <f>SUM(H4:H15)</f>
         <v>1355</v>
       </c>
     </row>
-    <row r="25" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P25" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q25">
-        <f>SUM(P19:R19)</f>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <f>SUM(G16:I16)</f>
         <v>551073</v>
+      </c>
+    </row>
+    <row r="19" spans="6:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7">
+        <f>G6+G7+G10</f>
+        <v>162812</v>
+      </c>
+      <c r="K21" s="8">
+        <f>H6+H7+H10</f>
+        <v>433</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="6:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="6:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="3">
+        <v>162812</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="4">
+        <f>(K25+K26)/(K25+K26+K27+K28)</f>
+        <v>0.99734754510092194</v>
+      </c>
+    </row>
+    <row r="26" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="8">
+        <f>K28/(K25+K28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="7">
+        <v>433</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" s="8">
+        <f>K27/(K26+K27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="6:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="10">
+        <v>0</v>
+      </c>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="6:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F32" s="2"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7">
+        <v>162812</v>
+      </c>
+      <c r="K33" s="8">
+        <v>433</v>
+      </c>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="6:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="6:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="12">
+        <v>162632</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" s="4">
+        <f>(K37+K38)/(K37+K38+K39+K40)</f>
+        <v>0.9977763484333364</v>
+      </c>
+    </row>
+    <row r="38" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="13">
+        <v>250</v>
+      </c>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N38" s="8">
+        <f>K40/(K37+K40)</f>
+        <v>1.1055696140333637E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="7">
+        <f>K21-K38</f>
+        <v>183</v>
+      </c>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N39" s="8">
+        <f>K39/(K38+K39)</f>
+        <v>0.42263279445727481</v>
+      </c>
+    </row>
+    <row r="40" spans="6:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" s="10">
+        <f>J21-K37</f>
+        <v>180</v>
+      </c>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N40">
+        <f>(K38*K37-K40*K39)/(SQRT((K38+K40)*(K38+K39)*(K37+K38)*(K37+K39)))</f>
+        <v>0.57813875915355739</v>
       </c>
     </row>
   </sheetData>
